--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单笔充值大于6元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每日进行捕鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -177,14 +173,6 @@
   </si>
   <si>
     <t>小游戏累计赢金50万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏分享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享一次游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -232,13 +220,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单笔充值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_rwbz</t>
-  </si>
-  <si>
     <t>rw_icon_mrby</t>
   </si>
   <si>
@@ -254,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,18 +251,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,14 +268,6 @@
   </si>
   <si>
     <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_98y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrzz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,22 +1126,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -1194,22 +1155,22 @@
         <v>12513</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1220,25 +1181,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>12514</v>
+        <v>12515</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -1249,25 +1210,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>12515</v>
+        <v>12516</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -1278,25 +1239,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>12516</v>
+        <v>12517</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -1307,87 +1268,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12517</v>
+        <v>12518</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12">
-        <v>12518</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12">
-        <v>12519</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
@@ -1396,14 +1307,6 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="9"/>
-      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -88,13 +88,6 @@
   </si>
   <si>
     <t>gotoui|按钮跳转位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_Fishing3DHall</t>
-  </si>
-  <si>
-    <t>game_Fishing3DHall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,35 +141,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启5个幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>累计获得金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与小游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"活跃度","金币"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每日进行捕鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>游戏分享</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀活动鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀彩金鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩贝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>每日进入捕鱼游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>累计获得金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏累计赢金50万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>击杀活动鱼</t>
+    <t>分享一次游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -208,66 +269,55 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>击杀彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与小游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrby</t>
-  </si>
-  <si>
-    <t>"活跃度","金币"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
+    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与3种不同的游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启5个幸运彩贝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值大于6元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_rwbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"share_hall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +390,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +401,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,16 +465,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -767,7 +811,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -781,7 +825,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -795,7 +839,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -809,7 +853,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1065,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,186 +1163,236 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12">
         <v>12512</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="12">
         <v>12513</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>12514</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12515</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>12516</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>12517</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="I7" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>12518</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>12515</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>12516</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="I8" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12519</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>12517</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>12518</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
@@ -1307,6 +1401,10 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>"shop_bay",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1337,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,56 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*20000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>福利券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*50000</t>
-    </r>
-  </si>
-  <si>
-    <t>福利券*20，小游戏币*10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10万，小游戏币*10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计获得金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -150,30 +100,6 @@
   </si>
   <si>
     <t>"活跃度","金币"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60,50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,6 +244,144 @@
   </si>
   <si>
     <t>"game_MiniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券*20，小游戏币*1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1万，小游戏币*1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，锁定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>福利券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，小游戏币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，召唤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*3</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +826,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -815,7 +875,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -829,7 +889,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -843,7 +903,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -857,7 +917,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1115,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,25 +1234,25 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1203,25 +1263,25 @@
         <v>12513</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1232,25 +1292,25 @@
         <v>12514</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1261,25 +1321,25 @@
         <v>12515</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1290,25 +1350,25 @@
         <v>12516</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1319,25 +1379,25 @@
         <v>12517</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1348,25 +1408,25 @@
         <v>12518</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1377,25 +1437,25 @@
         <v>12519</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -71,78 +71,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljsj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljyj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gotoui|按钮跳转位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计获得金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与小游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"活跃度","金币"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进行捕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>游戏分享</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>击杀活动鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单笔充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -151,135 +87,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_mrby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进入捕鱼游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金50万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享一次游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d捕鱼游戏中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击杀2条活动鱼</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启5个幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔充值大于6元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_rwbz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"share_hall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"shop_bay",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券*20，小游戏币*1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1万，小游戏币*1万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,7 +113,53 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>*2000</t>
+      <t>*50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，福利券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*25000，小游戏币*25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*20000，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF191F25"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>*10000</t>
     </r>
     <r>
       <rPr>
@@ -317,71 +183,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>福利券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，小游戏币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*5000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，召唤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*3</t>
-    </r>
+    <t>3D捕鱼中捕获任意10条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线60分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用任意技能3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进行3D捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +405,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,6 +445,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +735,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -875,7 +784,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -889,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -903,7 +812,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -917,7 +826,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1173,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1234,7 +1143,7 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -1243,16 +1152,16 @@
         <v>32</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1260,28 +1169,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>12513</v>
+        <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1289,28 +1198,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>12514</v>
+        <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,28 +1227,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>12515</v>
+        <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1347,28 +1256,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>12516</v>
+        <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1376,28 +1285,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12517</v>
+        <v>12514</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1405,58 +1314,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>12518</v>
+        <v>12519</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12">
-        <v>12519</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
@@ -1465,10 +1349,6 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -267,28 +267,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>"x1万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2.5万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2.5万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值6元及以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,19 +1090,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1"/>
-    <col min="6" max="6" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
@@ -1157,7 +1165,7 @@
       <c r="G2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1186,7 +1194,7 @@
       <c r="G3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -1215,8 +1223,8 @@
       <c r="G4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>46</v>
+      <c r="H4" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>16</v>
@@ -1244,8 +1252,8 @@
       <c r="G5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>48</v>
+      <c r="H5" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>16</v>
@@ -1273,8 +1281,8 @@
       <c r="G6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>49</v>
+      <c r="H6" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>16</v>
@@ -1302,8 +1310,8 @@
       <c r="G7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>47</v>
+      <c r="H7" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>17</v>
@@ -1323,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>39</v>
@@ -1331,8 +1339,8 @@
       <c r="G8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>50</v>
+      <c r="H8" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>18</v>
@@ -1349,6 +1357,27 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏分享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单笔充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -103,86 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*50000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，福利券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*25000，小游戏币*25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20000，召唤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，锁定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中捕获任意10条鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日进行3D捕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>使用技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,26 +147,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"ty_icon_flq1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_flq1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,35 +176,72 @@
   </si>
   <si>
     <t>"x1万","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2.5万","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2.5万","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x50","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x3万","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单笔充值6元及以上</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万鱼币，召唤*1</t>
+  </si>
+  <si>
+    <t>2万鱼币，1万小游戏币</t>
+  </si>
+  <si>
+    <t>3万鱼币，10福利券</t>
+  </si>
+  <si>
+    <t>1万鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币，50福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获彩金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获3条彩金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆1次3D捕鱼游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"活跃度",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -742,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -792,7 +737,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -806,7 +751,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -820,7 +765,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -834,7 +779,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1092,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,25 +1096,25 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1180,25 +1125,25 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1209,25 +1154,25 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1238,25 +1183,25 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1267,25 +1212,25 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1293,28 +1238,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12514</v>
+        <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1325,25 +1270,25 @@
         <v>12519</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_rwbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,11 +228,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"活跃度",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20",</t>
+    <t>"x100","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -737,7 +729,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -751,7 +743,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -765,7 +757,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -779,7 +771,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1037,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,25 +1088,25 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1125,25 +1117,25 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1154,25 +1146,25 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1183,25 +1175,25 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1212,25 +1204,25 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1241,25 +1233,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1276,19 +1268,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -212,10 +212,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"x50","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x2万","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,11 +224,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x100","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1190,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1219,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1236,7 +1236,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>44</v>
@@ -1248,7 +1248,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>15</v>
@@ -1277,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>16</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"share_hall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -729,7 +725,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -743,7 +739,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -757,7 +753,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -771,7 +767,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1029,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,22 +1084,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -1117,22 +1113,22 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1146,22 +1142,22 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1175,22 +1171,22 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1204,22 +1200,22 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1233,25 +1229,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1268,19 +1264,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中捕获任意10条鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +225,14 @@
   </si>
   <si>
     <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -725,7 +729,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -739,7 +743,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -753,7 +757,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -767,7 +771,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1026,7 +1030,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,22 +1088,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -1113,22 +1117,22 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1142,22 +1146,22 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1171,22 +1175,22 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1200,22 +1204,22 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1229,25 +1233,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1264,19 +1268,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计在线60分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_ljsj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,68 +171,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录游戏</t>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，10福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币，30福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>登陆1次3D捕鱼游戏</t>
+    <t>进入3D捕鱼任意场1次</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000鱼币，锁定*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，召唤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，10福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万金币，30福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -732,7 +732,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -746,7 +746,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -760,7 +760,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -774,7 +774,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,22 +1091,22 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -1120,22 +1120,22 @@
         <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>14</v>
@@ -1149,22 +1149,22 @@
         <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1178,22 +1178,22 @@
         <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1207,22 +1207,22 @@
         <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
@@ -1236,25 +1236,25 @@
         <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1271,19 +1271,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x1万","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,14 @@
   </si>
   <si>
     <t>3D捕鱼中捕获任意100条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -732,7 +736,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -746,7 +750,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -760,7 +764,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -774,7 +778,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1033,7 +1037,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,13 +1095,13 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>28</v>
@@ -1155,16 +1159,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>14</v>
@@ -1193,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>14</v>
@@ -1213,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>25</v>
@@ -1251,7 +1255,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>38</v>
@@ -1280,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>39</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="112">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -333,10 +333,6 @@
     <t>rw_icon_jn</t>
   </si>
   <si>
-    <t>3D捕鱼中击杀100倍以上鱼5条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀BOSS</t>
   </si>
   <si>
@@ -407,6 +403,65 @@
   </si>
   <si>
     <t>fish_daily_task_5</t>
+  </si>
+  <si>
+    <t>"x1.5万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看两次广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x150","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中击杀100倍以上鱼8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,7 +984,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B26"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1484,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1811,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>27</v>
@@ -2029,13 +2084,13 @@
         <v>12508</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>27</v>
@@ -2044,7 +2099,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2061,19 +2116,19 @@
         <v>12529</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>53</v>
@@ -2099,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>29</v>
@@ -2108,7 +2163,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2172,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>14</v>
@@ -2204,7 +2259,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>39</v>
@@ -2268,10 +2323,10 @@
         <v>30</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2285,19 +2340,19 @@
         <v>12532</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>53</v>
@@ -2323,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>29</v>
@@ -2332,7 +2387,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2381,13 +2436,13 @@
         <v>12511</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>28</v>
@@ -2428,7 +2483,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>39</v>
@@ -2492,10 +2547,10 @@
         <v>30</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2509,19 +2564,19 @@
         <v>12532</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>54</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>53</v>
@@ -2556,7 +2611,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2605,13 +2660,13 @@
         <v>12511</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>28</v>
@@ -2652,7 +2707,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>39</v>
@@ -2669,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -2700,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2714,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2728,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2742,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2756,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -347,9 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_js</t>
-  </si>
-  <si>
     <t>3D捕鱼中累计赢金100万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,22 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish_daily_task_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_daily_task_2</t>
-  </si>
-  <si>
-    <t>fish_daily_task_3</t>
-  </si>
-  <si>
-    <t>fish_daily_task_4</t>
-  </si>
-  <si>
-    <t>fish_daily_task_5</t>
-  </si>
-  <si>
     <t>"x1.5万","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +442,70 @@
   </si>
   <si>
     <t>"game_MiniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_2</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_3</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_4</t>
+  </si>
+  <si>
+    <t>actp_fish_daily_task_5</t>
+  </si>
+  <si>
+    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_4","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1831,13 +1876,13 @@
         <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>30</v>
@@ -1863,10 +1908,10 @@
         <v>61</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>27</v>
@@ -1927,7 +1972,7 @@
         <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>63</v>
@@ -2084,13 +2129,13 @@
         <v>12508</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>27</v>
@@ -2099,7 +2144,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2116,19 +2161,19 @@
         <v>12529</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>53</v>
@@ -2151,10 +2196,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>29</v>
@@ -2163,7 +2208,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2227,7 +2272,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>14</v>
@@ -2259,7 +2304,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>39</v>
@@ -2323,10 +2368,10 @@
         <v>30</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2340,19 +2385,19 @@
         <v>12532</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>53</v>
@@ -2375,10 +2420,10 @@
         <v>62</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>29</v>
@@ -2387,7 +2432,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2439,7 +2484,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>80</v>
@@ -2483,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>39</v>
@@ -2547,10 +2592,10 @@
         <v>30</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2561,22 +2606,22 @@
         <v>5</v>
       </c>
       <c r="C32" s="19">
-        <v>12532</v>
+        <v>12536</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>53</v>
@@ -2599,7 +2644,7 @@
         <v>62</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>71</v>
@@ -2611,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2663,7 +2708,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>79</v>
@@ -2707,7 +2752,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>39</v>
@@ -2725,7 +2770,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2755,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2769,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2783,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2797,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2811,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="127">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -506,6 +506,22 @@
   </si>
   <si>
     <t>"ty_icon_pms_4","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2394,13 +2410,13 @@
         <v>89</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>14</v>
@@ -2490,13 +2506,13 @@
         <v>80</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>14</v>
@@ -2617,14 +2633,14 @@
       <c r="F32" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>53</v>
+      <c r="G32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>14</v>
@@ -2714,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>14</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -128,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_flq1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +141,6 @@
   </si>
   <si>
     <t>"金币","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"福利券","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x30","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5000鱼币，锁定*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,14 +189,6 @@
   </si>
   <si>
     <t>1万鱼币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，10福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万金币，30福利券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,18 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x50","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x150","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x500","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x10000","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,6 +482,50 @@
   </si>
   <si>
     <t>"x50000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x150000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1067,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1087,7 +1091,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
@@ -1104,7 +1108,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
@@ -1121,7 +1125,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1138,7 +1142,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1155,7 +1159,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1172,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1190,7 +1194,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1208,7 +1212,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1226,7 +1230,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1244,7 +1248,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1262,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1280,7 +1284,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1298,7 +1302,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1316,7 +1320,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1334,7 +1338,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1352,7 +1356,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1370,7 +1374,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1388,7 +1392,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1407,7 +1411,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1426,7 +1430,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1445,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1464,7 +1468,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1483,7 +1487,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1501,7 +1505,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1519,7 +1523,7 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1600,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1622,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1665,22 +1669,22 @@
         <v>12512</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>14</v>
@@ -1706,13 +1710,13 @@
         <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>14</v>
@@ -1735,16 +1739,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>14</v>
@@ -1770,13 +1774,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>14</v>
@@ -1799,16 +1803,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1825,25 +1829,25 @@
         <v>12516</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1863,19 +1867,19 @@
         <v>13</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1">
@@ -1889,22 +1893,22 @@
         <v>12512</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>14</v>
@@ -1921,22 +1925,22 @@
         <v>12524</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>14</v>
@@ -1959,16 +1963,16 @@
         <v>17</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>14</v>
@@ -1985,22 +1989,22 @@
         <v>12525</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>14</v>
@@ -2023,16 +2027,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>14</v>
@@ -2049,22 +2053,22 @@
         <v>12516</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>14</v>
@@ -2087,19 +2091,19 @@
         <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="23" customFormat="1">
@@ -2113,22 +2117,22 @@
         <v>12512</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>14</v>
@@ -2145,22 +2149,22 @@
         <v>12508</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2177,22 +2181,22 @@
         <v>12529</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
@@ -2209,22 +2213,22 @@
         <v>12528</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2247,16 +2251,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
@@ -2273,22 +2277,22 @@
         <v>12526</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>14</v>
@@ -2305,25 +2309,25 @@
         <v>12527</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="21" customFormat="1">
@@ -2337,22 +2341,22 @@
         <v>12512</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>14</v>
@@ -2369,25 +2373,25 @@
         <v>12517</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2401,22 +2405,22 @@
         <v>12532</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="G25" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>14</v>
@@ -2433,22 +2437,22 @@
         <v>12531</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2471,16 +2475,16 @@
         <v>16</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>14</v>
@@ -2497,22 +2501,22 @@
         <v>12511</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>14</v>
@@ -2529,25 +2533,25 @@
         <v>12530</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1">
@@ -2561,22 +2565,22 @@
         <v>12512</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>14</v>
@@ -2593,25 +2597,25 @@
         <v>12517</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2625,22 +2629,22 @@
         <v>12536</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>14</v>
@@ -2657,22 +2661,22 @@
         <v>12535</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2695,16 +2699,16 @@
         <v>16</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>14</v>
@@ -2721,22 +2725,22 @@
         <v>12511</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>14</v>
@@ -2753,25 +2757,25 @@
         <v>12534</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2796,16 +2800,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2816,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2830,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2844,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2858,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2872,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与游戏</t>
   </si>
   <si>
@@ -319,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_bh</t>
   </si>
   <si>
@@ -366,14 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x5万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x10000","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中击杀100倍以上鱼8条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,71 +441,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"ty_icon_pms_4","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x80000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x50000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x150000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x500000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5万","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中累计赢金1000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"ty_icon_pms_2","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_pms_4","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x80000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x50000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x50000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x150000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x500000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，1万金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1142,7 +1146,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1159,7 +1163,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1230,7 +1234,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1248,7 +1252,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1320,7 +1324,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1338,7 +1342,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1411,7 +1415,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1430,7 +1434,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1505,7 +1509,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1523,7 +1527,7 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1604,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1812,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1876,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>35</v>
@@ -1896,13 +1900,13 @@
         <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
@@ -1928,10 +1932,10 @@
         <v>54</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>25</v>
@@ -1992,7 +1996,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>56</v>
@@ -2036,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>14</v>
@@ -2100,7 +2104,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>35</v>
@@ -2149,13 +2153,13 @@
         <v>12508</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>25</v>
@@ -2164,7 +2168,7 @@
         <v>28</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2181,19 +2185,19 @@
         <v>12529</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>46</v>
@@ -2216,10 +2220,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>27</v>
@@ -2228,7 +2232,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2260,7 +2264,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
@@ -2292,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>14</v>
@@ -2324,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>35</v>
@@ -2373,13 +2377,13 @@
         <v>12517</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>25</v>
@@ -2388,10 +2392,10 @@
         <v>28</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2405,13 +2409,13 @@
         <v>12532</v>
       </c>
       <c r="D25" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>25</v>
@@ -2420,7 +2424,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>14</v>
@@ -2440,10 +2444,10 @@
         <v>55</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>27</v>
@@ -2452,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2484,7 +2488,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>14</v>
@@ -2501,22 +2505,22 @@
         <v>12511</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>14</v>
@@ -2548,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>35</v>
@@ -2597,13 +2601,13 @@
         <v>12517</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>25</v>
@@ -2612,10 +2616,10 @@
         <v>28</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2629,13 +2633,13 @@
         <v>12536</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>25</v>
@@ -2644,7 +2648,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>14</v>
@@ -2664,10 +2668,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>27</v>
@@ -2676,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2708,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>14</v>
@@ -2722,25 +2726,25 @@
         <v>5</v>
       </c>
       <c r="C35" s="19">
-        <v>12511</v>
+        <v>12537</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>14</v>
@@ -2772,7 +2776,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>35</v>
@@ -2820,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2834,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2848,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2862,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2876,7 +2880,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="130">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"200福利券赛门票","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +526,14 @@
   </si>
   <si>
     <t>"ty_icon_pms_2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1.5万","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1150,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1163,7 +1167,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1234,7 +1238,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1252,7 +1256,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1324,7 +1328,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1342,7 +1346,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1415,7 +1419,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1434,7 +1438,7 @@
         <v>150</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1509,7 +1513,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1527,7 +1531,7 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1608,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1816,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1880,7 +1884,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>35</v>
@@ -1900,13 +1904,13 @@
         <v>42</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>28</v>
@@ -1932,7 +1936,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>83</v>
@@ -1996,7 +2000,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>56</v>
@@ -2040,7 +2044,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>14</v>
@@ -2104,7 +2108,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>35</v>
@@ -2168,7 +2172,7 @@
         <v>28</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>14</v>
@@ -2194,10 +2198,10 @@
         <v>81</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>46</v>
@@ -2220,7 +2224,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>74</v>
@@ -2232,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>14</v>
@@ -2264,7 +2268,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>14</v>
@@ -2328,7 +2332,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>35</v>
@@ -2392,10 +2396,10 @@
         <v>28</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="21" customFormat="1">
@@ -2424,7 +2428,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>14</v>
@@ -2444,10 +2448,10 @@
         <v>55</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>27</v>
@@ -2456,7 +2460,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>14</v>
@@ -2488,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>14</v>
@@ -2508,19 +2512,19 @@
         <v>70</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>14</v>
@@ -2552,7 +2556,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>35</v>
@@ -2616,10 +2620,10 @@
         <v>28</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1">
@@ -2639,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>25</v>
@@ -2648,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>14</v>
@@ -2668,10 +2672,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>27</v>
@@ -2680,7 +2684,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>14</v>
@@ -2712,7 +2716,7 @@
         <v>28</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>14</v>
@@ -2732,19 +2736,19 @@
         <v>69</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>14</v>
@@ -2776,7 +2780,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>35</v>
@@ -2824,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2">
         <v>13000</v>
@@ -2838,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>13000</v>
@@ -2852,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>13000</v>
@@ -2866,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>13000</v>
@@ -2880,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>13000</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -441,26 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_1_2_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"福利券","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,66 +454,6 @@
   </si>
   <si>
     <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -637,16 +557,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_task_fish_daily_1_2_cps</t>
-  </si>
-  <si>
-    <t>p_task_fish_daily_3_cps</t>
-  </si>
-  <si>
-    <t>p_task_fish_daily_4_cps</t>
-  </si>
-  <si>
-    <t>p_task_fish_daily_5_cps</t>
+    <t>actp_own_task_p_task_fish_daily_1</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_cps</t>
   </si>
 </sst>
 </file>
@@ -1303,12 +1262,12 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
@@ -1366,25 +1325,25 @@
         <v>12512</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1392,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1424,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1456,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1488,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1520,7 +1479,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1552,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1584,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C9" s="16">
         <v>12524</v>
@@ -1616,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C10" s="16">
         <v>12525</v>
@@ -1648,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C11" s="13">
         <v>12508</v>
@@ -1680,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C12" s="13">
         <v>12529</v>
@@ -1712,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C13" s="13">
         <v>12528</v>
@@ -1744,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C14" s="18">
         <v>12526</v>
@@ -1776,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C15" s="13">
         <v>12527</v>
@@ -1808,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C16" s="16">
         <v>12517</v>
@@ -1840,7 +1799,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C17" s="16">
         <v>12532</v>
@@ -1872,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C18" s="16">
         <v>12531</v>
@@ -1904,7 +1863,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C19" s="16">
         <v>12511</v>
@@ -1936,7 +1895,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C20" s="16">
         <v>12530</v>
@@ -1968,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C21" s="13">
         <v>12536</v>
@@ -2000,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C22" s="13">
         <v>12535</v>
@@ -2032,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C23" s="13">
         <v>12537</v>
@@ -2064,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C24" s="13">
         <v>12534</v>
@@ -2096,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C25" s="9">
         <v>12538</v>
@@ -2111,13 +2070,13 @@
         <v>39</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>13</v>
@@ -2128,31 +2087,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C26" s="9">
         <v>12539</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="12" customFormat="1">
@@ -2160,28 +2119,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C27" s="13">
         <v>12540</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>33</v>
@@ -2192,31 +2151,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C28" s="16">
         <v>12541</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1">
@@ -2224,28 +2183,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C29" s="13">
         <v>12542</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>33</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
+    <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
     <sheet name="active_task_item|单个活跃度任务" sheetId="5" r:id="rId2"/>
+    <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId3"/>
+    <sheet name="active_task_item_cjj|冲金鸡" sheetId="10" r:id="rId4"/>
+    <sheet name="active_award_config_cjj|冲金鸡" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -553,70 +556,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_no_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_3_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_4_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_5_cps</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万小游戏币，玩具锤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币，1万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万金币，2万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_award_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task|任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award|活跃度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_task|活跃度任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_award_config_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_task_item_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_task_fish_daily_1</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_2</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_5</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5_no_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_3_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_4_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_5_cps</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_pms_3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金</t>
+  </si>
+  <si>
+    <t>红包场累计赢金5万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金10万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金50万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金100万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金200万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金500万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x300","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x150","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x60","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_task_item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +968,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,173 +1255,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="2"/>
-    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="2"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>60</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>90</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>120</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>150</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3">
+        <v>13001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1273,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1363,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1395,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1427,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1459,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1491,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1523,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1555,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="16">
         <v>12524</v>
@@ -1587,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="16">
         <v>12525</v>
@@ -1619,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="13">
         <v>12508</v>
@@ -1651,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="13">
         <v>12529</v>
@@ -1683,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="13">
         <v>12528</v>
@@ -1715,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="18">
         <v>12526</v>
@@ -1747,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="13">
         <v>12527</v>
@@ -1779,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16">
         <v>12517</v>
@@ -1811,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="16">
         <v>12532</v>
@@ -1843,7 +1900,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" s="16">
         <v>12531</v>
@@ -1875,7 +1932,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="16">
         <v>12511</v>
@@ -1890,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>101</v>
@@ -1907,7 +1964,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="16">
         <v>12530</v>
@@ -1939,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="13">
         <v>12536</v>
@@ -1971,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13">
         <v>12535</v>
@@ -2003,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="13">
         <v>12537</v>
@@ -2035,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="13">
         <v>12534</v>
@@ -2067,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="9">
         <v>12538</v>
@@ -2099,7 +2156,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C26" s="9">
         <v>12539</v>
@@ -2131,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="13">
         <v>12540</v>
@@ -2163,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="16">
         <v>12541</v>
@@ -2195,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="13">
         <v>12542</v>
@@ -2227,4 +2284,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2"/>
+    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="40.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
+        <v>12600</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
+        <v>12601</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <v>12602</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <v>12603</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9">
+        <v>12604</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
+        <v>12605</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <v>12606</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2"/>
+    <col min="10" max="10" width="70.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>150</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -737,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"game_MniGame",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x1","x10"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,6 +766,10 @@
   </si>
   <si>
     <t>active_task_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1294,7 +1294,7 @@
         <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
         <v>161</v>
@@ -2463,7 +2463,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2535,10 +2535,10 @@
         <v>177</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2565,10 +2565,10 @@
         <v>177</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2595,10 +2595,10 @@
         <v>177</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2625,10 +2625,10 @@
         <v>177</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2655,10 +2655,10 @@
         <v>177</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2685,10 +2685,10 @@
         <v>177</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2715,10 +2715,10 @@
         <v>177</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2732,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -641,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notcjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>task|任务表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,6 +762,14 @@
   </si>
   <si>
     <t>"game_MiniGame",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1271,19 +1271,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="C1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1291,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1308,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>13001</v>
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -2462,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2520,25 +2520,25 @@
         <v>12600</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2550,25 +2550,25 @@
         <v>12601</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2580,25 +2580,25 @@
         <v>12602</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2610,25 +2610,25 @@
         <v>12603</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2640,25 +2640,25 @@
         <v>12604</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2670,25 +2670,25 @@
         <v>12605</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2700,25 +2700,25 @@
         <v>12606</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="201">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -680,96 +680,130 @@
     <t>累计赢金</t>
   </si>
   <si>
+    <t>红包场累计赢金500万</t>
+  </si>
+  <si>
+    <t>红包场累计赢金1000万</t>
+  </si>
+  <si>
+    <t>active_task_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金500万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1000万</t>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金5万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金10万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王争霸累计赢金50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包场累计赢金1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>红包场累计赢金5万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红包场累计赢金10万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红包场累计赢金50万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红包场累计赢金100万</t>
-  </si>
-  <si>
-    <t>红包场累计赢金200万</t>
-  </si>
-  <si>
-    <t>红包场累计赢金500万</t>
-  </si>
-  <si>
-    <t>红包场累计赢金1000万</t>
-  </si>
-  <si>
-    <t>"福利券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x300","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x150","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x60","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_task_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+  </si>
+  <si>
+    <t>"x200","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_LWZBHall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +912,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +953,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +1012,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1257,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1291,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
         <v>160</v>
@@ -1308,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -2460,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2526,19 +2569,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2556,19 +2599,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2586,19 +2629,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2616,19 +2659,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2646,19 +2689,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2679,16 +2722,16 @@
         <v>173</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2709,17 +2752,269 @@
         <v>174</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>12607</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>12608</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="G10" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
+        <v>12609</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>12610</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9">
+        <v>12611</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="G13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <v>12612</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>190</v>
       </c>
+      <c r="H14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
+        <v>12613</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -775,35 +775,35 @@
     <t>"金币","活跃度"</t>
   </si>
   <si>
-    <t>"x200","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x2000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x10000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x200000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_LWZBHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x200000","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I9" sqref="I9:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2578,10 +2578,10 @@
         <v>192</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2608,10 +2608,10 @@
         <v>192</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2638,10 +2638,10 @@
         <v>192</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2668,10 +2668,10 @@
         <v>192</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2698,10 +2698,10 @@
         <v>192</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2728,10 +2728,10 @@
         <v>192</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2758,10 +2758,10 @@
         <v>192</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2788,7 +2788,7 @@
         <v>192</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>71</v>
@@ -2818,7 +2818,7 @@
         <v>192</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>71</v>
@@ -2848,7 +2848,7 @@
         <v>192</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>71</v>
@@ -2878,7 +2878,7 @@
         <v>192</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>71</v>
@@ -2908,7 +2908,7 @@
         <v>192</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>71</v>
@@ -2938,7 +2938,7 @@
         <v>192</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>71</v>
@@ -2968,7 +2968,7 @@
         <v>192</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>71</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -792,28 +792,31 @@
     <t>水果消消乐累计消除西瓜200个</t>
   </si>
   <si>
+    <t>"x2000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水果消消乐累计消除BAR100个</t>
-  </si>
-  <si>
-    <t>水果消消乐中累计赢金1000000（单局至少投入5000）</t>
-  </si>
-  <si>
-    <t>水果消消乐出现一次幸运时刻（单局至少投入30000）</t>
-  </si>
-  <si>
-    <t>"x2000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现幸运时刻(单局至少投入3万)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计赢金100万(单局至少投入5千)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,6 +906,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2531,7 +2535,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2603,7 +2607,7 @@
         <v>185</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>71</v>
@@ -2633,7 +2637,7 @@
         <v>185</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>71</v>
@@ -2714,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>184</v>
@@ -2723,7 +2727,7 @@
         <v>185</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>71</v>
@@ -2744,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>183</v>
@@ -2753,7 +2757,7 @@
         <v>185</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>71</v>
@@ -2774,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>182</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="200">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观看广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计赢金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观看两次广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中击杀100倍以上鱼8条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +309,6 @@
   </si>
   <si>
     <t>rw_icon_boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljyj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_task_fish_daily_2_no_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_fish_daily_1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,10 +654,6 @@
   </si>
   <si>
     <t>active_task_item_cjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1329,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1343,19 +1323,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1363,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1380,13 +1360,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>12999</v>
@@ -1400,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1425,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1466,25 +1446,25 @@
         <v>12512</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1492,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C3" s="9">
         <v>12520</v>
@@ -1524,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C4" s="9">
         <v>12521</v>
@@ -1542,7 +1522,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>41</v>
@@ -1556,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="9">
         <v>12522</v>
@@ -1588,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9">
         <v>12523</v>
@@ -1609,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>13</v>
@@ -1620,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9">
         <v>12516</v>
@@ -1652,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -1673,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>33</v>
@@ -1684,62 +1664,62 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" s="16">
-        <v>12524</v>
+        <v>12525</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>78</v>
+      <c r="E9" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="15" customFormat="1">
+    <row r="10" spans="1:15" s="12" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="16">
-        <v>12525</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="B10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="13">
+        <v>12508</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1748,28 +1728,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="13">
-        <v>12508</v>
+        <v>12529</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>13</v>
@@ -1780,127 +1760,127 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="13">
-        <v>12529</v>
+        <v>12528</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1">
+    <row r="13" spans="1:15" s="17" customFormat="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="13">
-        <v>12528</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="B13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="18">
+        <v>12526</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="17" customFormat="1">
+    <row r="14" spans="1:15" s="12" customFormat="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="18">
-        <v>12526</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12527</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="12" customFormat="1">
+      <c r="I14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="15" customFormat="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12527</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="16">
+        <v>12517</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>33</v>
+      <c r="I15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="15" customFormat="1">
@@ -1908,19 +1888,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="16">
-        <v>12517</v>
+        <v>12532</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>24</v>
@@ -1929,10 +1909,10 @@
         <v>27</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1">
@@ -1940,28 +1920,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" s="16">
-        <v>12532</v>
+        <v>12531</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -1972,28 +1952,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="16">
-        <v>12531</v>
+        <v>12511</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
@@ -2004,63 +1984,63 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="16">
-        <v>12511</v>
+        <v>12530</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="16">
-        <v>12530</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="13">
+        <v>12536</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>33</v>
+      <c r="I20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1">
@@ -2068,28 +2048,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="13">
-        <v>12536</v>
+        <v>12535</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>80</v>
+      <c r="I21" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>13</v>
@@ -2100,28 +2080,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="13">
-        <v>12535</v>
+        <v>12537</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>13</v>
@@ -2132,222 +2112,190 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="13">
-        <v>12537</v>
+        <v>12534</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="13">
-        <v>12534</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>33</v>
+      <c r="B24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="9">
+        <v>12538</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>143</v>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="9">
-        <v>12538</v>
+        <v>12539</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12539</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12540</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="H26" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="13">
-        <v>12540</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="16">
+        <v>12541</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>47</v>
+      <c r="E27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="15" customFormat="1">
+      <c r="J27" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="16">
-        <v>12541</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="B28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="13">
+        <v>12542</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="13" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="12" customFormat="1">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="13">
-        <v>12542</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2440,7 +2388,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2454,7 +2402,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2556,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2592,25 +2540,25 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2622,25 +2570,25 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2652,25 +2600,25 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2682,25 +2630,25 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2712,25 +2660,25 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2742,25 +2690,25 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2772,25 +2720,25 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2802,25 +2750,25 @@
         <v>12607</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2832,25 +2780,25 @@
         <v>12608</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2862,25 +2810,25 @@
         <v>12609</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2892,25 +2840,25 @@
         <v>12610</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2922,25 +2870,25 @@
         <v>12611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2952,25 +2900,25 @@
         <v>12612</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2982,25 +2930,25 @@
         <v>12613</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +2998,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -3064,7 +3012,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -3078,7 +3026,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3092,7 +3040,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3106,7 +3054,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -749,14 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x100000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x200000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐</t>
   </si>
   <si>
@@ -797,6 +789,22 @@
   </si>
   <si>
     <t>累计赢金100万(单局至少投入5千)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x20000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000","x10"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2482,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2540,13 +2548,13 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>173</v>
@@ -2555,7 +2563,7 @@
         <v>180</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>69</v>
@@ -2570,13 +2578,13 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>174</v>
@@ -2585,7 +2593,7 @@
         <v>180</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>69</v>
@@ -2600,13 +2608,13 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>175</v>
@@ -2630,13 +2638,13 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>176</v>
@@ -2660,13 +2668,13 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>179</v>
@@ -2675,7 +2683,7 @@
         <v>180</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>69</v>
@@ -2690,13 +2698,13 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>178</v>
@@ -2705,7 +2713,7 @@
         <v>180</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>69</v>
@@ -2720,13 +2728,13 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>177</v>
@@ -2855,7 +2863,7 @@
         <v>180</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>69</v>
@@ -2885,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>69</v>
@@ -2915,7 +2923,7 @@
         <v>180</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>69</v>
@@ -2945,7 +2953,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>69</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -804,7 +804,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000万金币，5000小游戏币</t>
+    <t>3000金币，5000小游戏币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2971,7 +2971,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="203">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -805,6 +805,10 @@
   </si>
   <si>
     <t>"x3000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Eliminate",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2566,7 +2570,7 @@
         <v>191</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2596,7 +2600,7 @@
         <v>192</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2626,7 +2630,7 @@
         <v>184</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2656,7 +2660,7 @@
         <v>185</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2686,7 +2690,7 @@
         <v>193</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2716,7 +2720,7 @@
         <v>194</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2746,7 +2750,7 @@
         <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:10">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="202">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -601,26 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万小游戏币，玩具锤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万金币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万金币，2万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_task_fish_daily_1_2_no_cps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,14 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐</t>
   </si>
   <si>
@@ -764,22 +736,6 @@
     <t>水果消消乐累计消除西瓜200个</t>
   </si>
   <si>
-    <t>"x2000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水果消消乐累计消除BAR100个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,15 +748,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x10000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x20000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x10"</t>
+    <t>"x500","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1000","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x2000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x3000","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,7 +780,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Eliminate",</t>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x10000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000小游戏币，玩具锤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币，5000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000万金币，5000小游戏币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,19 +1331,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1355,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>13000</v>
@@ -1372,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>13001</v>
@@ -1644,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9">
         <v>12519</v>
@@ -2494,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2552,25 +2548,25 @@
         <v>12600</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2582,25 +2578,25 @@
         <v>12601</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2612,25 +2608,25 @@
         <v>12602</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2642,25 +2638,25 @@
         <v>12603</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2672,25 +2668,25 @@
         <v>12604</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2702,25 +2698,25 @@
         <v>12605</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2732,25 +2728,25 @@
         <v>12606</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2762,22 +2758,22 @@
         <v>12607</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>69</v>
@@ -2792,22 +2788,22 @@
         <v>12608</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>69</v>
@@ -2822,22 +2818,22 @@
         <v>12609</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>69</v>
@@ -2852,22 +2848,22 @@
         <v>12610</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>69</v>
@@ -2882,22 +2878,22 @@
         <v>12611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>69</v>
@@ -2912,22 +2908,22 @@
         <v>12612</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>69</v>
@@ -2942,22 +2938,22 @@
         <v>12613</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>69</v>
@@ -2974,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -3010,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -3024,7 +3020,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -3038,7 +3034,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3052,7 +3048,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3066,7 +3062,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="21">
-        <v>12512</v>
+        <v>12553</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>43</v>
@@ -1527,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="21">
-        <v>12521</v>
+        <v>12554</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>177</v>
@@ -1701,6 +1701,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="active_award_config_cjj|冲金鸡" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'active_task_item|单个活跃度任务'!$F$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'active_task_item|单个活跃度任务'!$F$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="171">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,18 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_flq1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"福利券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>task_award_icon|任务奖励图标(数组，和后面的长度要对应)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,26 +699,6 @@
   </si>
   <si>
     <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"福利券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30","x50"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1310,19 +1274,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1330,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -1347,13 +1311,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>13000</v>
@@ -1364,13 +1328,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>13001</v>
@@ -1386,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
@@ -1440,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1507,7 +1471,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>13</v>
@@ -1516,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1">
@@ -1530,13 +1494,13 @@
         <v>12554</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>37</v>
@@ -1577,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>13</v>
@@ -1586,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1">
@@ -1616,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>13</v>
@@ -1625,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1">
@@ -1654,7 +1618,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>13</v>
@@ -1663,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
@@ -1692,7 +1656,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>31</v>
@@ -1730,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -1744,13 +1708,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -1761,13 +1725,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
@@ -1778,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -1791,13 +1755,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1808,13 +1772,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1838,7 +1802,7 @@
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="36.625" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
@@ -1848,16 +1812,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1869,13 +1833,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1894,27 +1858,29 @@
       <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D2" s="9">
         <v>12512</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>13</v>
@@ -1930,7 +1896,9 @@
       <c r="B3" s="8">
         <v>11</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D3" s="9">
         <v>12520</v>
       </c>
@@ -1938,19 +1906,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -1966,7 +1934,9 @@
       <c r="B4" s="8">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D4" s="9">
         <v>12521</v>
       </c>
@@ -1974,22 +1944,22 @@
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>13</v>
@@ -2002,7 +1972,9 @@
       <c r="B5" s="8">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D5" s="9">
         <v>12522</v>
       </c>
@@ -2013,19 +1985,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>13</v>
@@ -2039,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D6" s="9">
         <v>12523</v>
@@ -2051,19 +2023,19 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
@@ -2076,30 +2048,32 @@
       <c r="B7" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D7" s="9">
         <v>12516</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>30</v>
@@ -2113,31 +2087,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D8" s="9">
         <v>12519</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>31</v>
@@ -2148,79 +2122,269 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D9" s="9">
-        <v>12538</v>
+        <v>12555</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" s="16" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="9">
+        <v>12549</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="16" customFormat="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="9">
+        <v>12556</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="16" customFormat="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="9">
+        <v>12550</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="16" customFormat="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12551</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="16" customFormat="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="9">
+        <v>12552</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="16" customFormat="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="9">
-        <v>12539</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="9">
+        <v>12548</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>50</v>
+      <c r="L15" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F10"/>
+  <autoFilter ref="F1:F15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2417,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2453,25 +2617,25 @@
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2486,25 +2650,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2519,25 +2683,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2552,25 +2716,25 @@
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2585,25 +2749,25 @@
         <v>5</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2618,25 +2782,25 @@
         <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2651,25 +2815,25 @@
         <v>7</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2684,22 +2848,22 @@
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>38</v>
@@ -2717,22 +2881,22 @@
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>38</v>
@@ -2750,22 +2914,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>38</v>
@@ -2783,22 +2947,22 @@
         <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>38</v>
@@ -2816,22 +2980,22 @@
         <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>38</v>
@@ -2849,22 +3013,22 @@
         <v>13</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>38</v>
@@ -2882,22 +3046,22 @@
         <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>38</v>
@@ -2950,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
@@ -2964,7 +3128,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
@@ -2978,7 +3142,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2992,7 +3156,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3006,7 +3170,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -478,8 +478,205 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3000鱼币，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000鱼币，3000小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000鱼币，3000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500鱼币，锁定*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万金币，锁定*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|行号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入3D捕鱼任意场1次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意100条鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pms_1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250福利券赛门票","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获彩金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_award_icon|任务奖励图标(数组，和后面的长度要对应)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_award_count|任务奖励数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用任意技能3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30000","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_mrzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_cpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼</t>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+  </si>
+  <si>
+    <t>3D捕鱼中捕获任意100条鱼</t>
+  </si>
+  <si>
     <r>
-      <t>v1</t>
+      <t>V1</t>
     </r>
     <r>
       <rPr>
@@ -495,7 +692,7 @@
   </si>
   <si>
     <r>
-      <t>v2</t>
+      <t>V2</t>
     </r>
     <r>
       <rPr>
@@ -511,7 +708,7 @@
   </si>
   <si>
     <r>
-      <t>v3</t>
+      <t>V3</t>
     </r>
     <r>
       <rPr>
@@ -527,7 +724,7 @@
   </si>
   <si>
     <r>
-      <t>v5</t>
+      <t>V5</t>
     </r>
     <r>
       <rPr>
@@ -542,217 +739,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000鱼币，召唤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000鱼币，3000小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000鱼币，3000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500鱼币，锁定*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2万金币，锁定*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|行号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>key|权限标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id|任务id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入3D捕鱼任意场1次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意100条鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_pms_1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"250福利券赛门票","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获彩金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x50"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_award_icon|任务奖励图标(数组，和后面的长度要对应)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_award_count|任务奖励数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x100","x10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中使用任意技能3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x5000","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计开炮1000次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计在线90分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x30000","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"x1万","x30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔充值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_mrzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"v2三倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"v1双倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"v3三倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"v5三倍", ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin_cpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_cps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_official</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_official</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计捕鱼</t>
-  </si>
-  <si>
-    <t>rw_icon_bh</t>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意100条鱼</t>
+    <t>"V1双倍", ""</t>
+  </si>
+  <si>
+    <t>"V2三倍", ""</t>
+  </si>
+  <si>
+    <t>"V3三倍", ""</t>
+  </si>
+  <si>
+    <t>"V5三倍", ""</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>111</v>
@@ -1311,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>110</v>
@@ -1350,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1480,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="20" customFormat="1">
@@ -1494,13 +1490,13 @@
         <v>12554</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>37</v>
@@ -1550,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="16" customFormat="1">
@@ -1589,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="16" customFormat="1">
@@ -1627,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
@@ -1674,7 +1670,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1694,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>103</v>
@@ -1708,13 +1704,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -1725,13 +1721,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5">
@@ -1742,7 +1738,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -1755,13 +1751,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -1772,13 +1768,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
@@ -1812,16 +1808,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1833,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1859,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D2" s="9">
         <v>12512</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>13</v>
@@ -1897,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D3" s="9">
         <v>12520</v>
@@ -1906,19 +1902,19 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>13</v>
@@ -1935,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9">
         <v>12521</v>
@@ -1944,22 +1940,22 @@
         <v>22</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>13</v>
@@ -1973,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9">
         <v>12522</v>
@@ -1985,19 +1981,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>13</v>
@@ -2011,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9">
         <v>12523</v>
@@ -2023,19 +2019,19 @@
         <v>15</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
@@ -2049,31 +2045,31 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D7" s="9">
         <v>12516</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>30</v>
@@ -2087,31 +2083,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D8" s="9">
         <v>12519</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>31</v>
@@ -2125,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D9" s="9">
         <v>12555</v>
@@ -2163,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D10" s="9">
         <v>12549</v>
@@ -2201,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="9">
         <v>12556</v>
@@ -2210,16 +2206,16 @@
         <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>36</v>
@@ -2239,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D12" s="9">
         <v>12550</v>
@@ -2260,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>13</v>
@@ -2277,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D13" s="9">
         <v>12551</v>
@@ -2298,7 +2294,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>13</v>
@@ -2315,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D14" s="9">
         <v>12552</v>
@@ -2336,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>13</v>
@@ -2353,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D15" s="9">
         <v>12548</v>
@@ -2374,7 +2370,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>31</v>
@@ -2581,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="174">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t>"V5三倍", ""</t>
+  </si>
+  <si>
+    <t>"红包券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1346,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1788,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2291,10 +2303,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>13</v>
@@ -2367,10 +2379,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>31</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="175">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -760,6 +760,10 @@
   </si>
   <si>
     <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1801,7 +1805,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2300,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>171</v>
@@ -2376,7 +2380,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>171</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -711,6 +711,10 @@
   </si>
   <si>
     <t>15000金币</t>
+  </si>
+  <si>
+    <t>"V2双倍", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2516,7 +2520,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2713,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -638,9 +638,6 @@
     <t>龙王争霸游戏20次</t>
   </si>
   <si>
-    <t>水果消消乐出现一次幸运时刻（单局至少投入6万）</t>
-  </si>
-  <si>
     <t>红包场累计赢金500万（单局至少投入6万）</t>
   </si>
   <si>
@@ -714,6 +711,10 @@
   </si>
   <si>
     <t>"V2双倍", ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐出现一次幸运时刻（单局至少投入3万）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2063,7 +2064,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
@@ -2520,7 +2521,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2591,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
@@ -2606,7 +2607,7 @@
         <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>38</v>
@@ -2623,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
@@ -2638,7 +2639,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
@@ -2661,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2676,7 +2677,7 @@
         <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>38</v>
@@ -2693,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
@@ -2708,7 +2709,7 @@
         <v>63</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>38</v>
@@ -2717,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2731,13 +2732,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>62</v>
@@ -2775,7 +2776,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>62</v>
@@ -2784,7 +2785,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -2807,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>61</v>
@@ -2822,7 +2823,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>31</v>
@@ -2882,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -2900,7 +2901,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -2918,7 +2919,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -2932,7 +2933,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -2950,7 +2951,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>

--- a/config_debug/active_daily_task_info_config.xlsx
+++ b/config_debug/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="165">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -610,10 +610,6 @@
     <t>"V5三倍", ""</t>
   </si>
   <si>
-    <t>"红包券","活跃度"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"x30","x30"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,6 +712,14 @@
   </si>
   <si>
     <t>萌宠消消乐游戏10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1324,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1643,7 +1647,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1761,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2065,7 +2069,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>26</v>
@@ -2261,13 +2265,13 @@
         <v>35</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>13</v>
@@ -2337,13 +2341,13 @@
         <v>26</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>31</v>
@@ -2521,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -2593,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>60</v>
@@ -2608,7 +2612,7 @@
         <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>38</v>
@@ -2625,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>23</v>
@@ -2640,7 +2644,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
@@ -2663,13 +2667,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>23</v>
@@ -2678,7 +2682,7 @@
         <v>63</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>38</v>
@@ -2695,13 +2699,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>62</v>
@@ -2710,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>38</v>
@@ -2719,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2733,13 +2737,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>62</v>
@@ -2777,7 +2781,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>62</v>
@@ -2786,7 +2790,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -2809,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>61</v>
@@ -2824,7 +2828,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>31</v>
@@ -2884,7 +2888,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -2902,7 +2906,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -2920,7 +2924,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
@@ -2934,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -2952,7 +2956,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
